--- a/instanciaPruebaRadioCuadrado1/runConf/SquareRadioTest.xlsx
+++ b/instanciaPruebaRadioCuadrado1/runConf/SquareRadioTest.xlsx
@@ -29,417 +29,420 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="138">
   <si>
     <t>Fitness</t>
   </si>
   <si>
+    <t>1002.7778</t>
+  </si>
+  <si>
+    <t>981.7778</t>
+  </si>
+  <si>
+    <t>961.0</t>
+  </si>
+  <si>
     <t>940.4444</t>
   </si>
   <si>
+    <t>921.6</t>
+  </si>
+  <si>
+    <t>900.0</t>
+  </si>
+  <si>
+    <t>880.1111</t>
+  </si>
+  <si>
+    <t>864.9</t>
+  </si>
+  <si>
+    <t>860.4444</t>
+  </si>
+  <si>
+    <t>841.0</t>
+  </si>
+  <si>
+    <t>828.1</t>
+  </si>
+  <si>
+    <t>810.0</t>
+  </si>
+  <si>
+    <t>802.7778</t>
+  </si>
+  <si>
+    <t>800.0</t>
+  </si>
+  <si>
+    <t>784.0</t>
+  </si>
+  <si>
+    <t>774.4</t>
+  </si>
+  <si>
+    <t>769.4545</t>
+  </si>
+  <si>
+    <t>756.9</t>
+  </si>
+  <si>
+    <t>752.8182</t>
+  </si>
+  <si>
+    <t>729.0</t>
+  </si>
+  <si>
+    <t>723.7692</t>
+  </si>
+  <si>
+    <t>722.5</t>
+  </si>
+  <si>
+    <t>720.0909</t>
+  </si>
+  <si>
+    <t>DATOS DE CORRIDA Y POBLACION</t>
+  </si>
+  <si>
+    <t>Media= 826.9081326081326</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 79.59024089241406</t>
+  </si>
+  <si>
+    <t>Fitness del mejor individuo= 1002.7777777777778</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 111101111000000000000000000000000000000000000010000000000000</t>
+  </si>
+  <si>
+    <t>Numero de sensores utilizado= 60</t>
+  </si>
+  <si>
+    <t>Numero de Sensores aleatoriamente distribuidos= 0</t>
+  </si>
+  <si>
+    <t>Numero de ejecuciones= 30</t>
+  </si>
+  <si>
+    <t>Operador de cruza= OnePointCrossoverOperator</t>
+  </si>
+  <si>
+    <t>Numero de generaciones= 100</t>
+  </si>
+  <si>
+    <t>Probabilidad de cruza= 0.8</t>
+  </si>
+  <si>
+    <t>Probabilidad de mutación= 0.01</t>
+  </si>
+  <si>
+    <t>Función objetivo= SquareRatioObjectiveFunction</t>
+  </si>
+  <si>
+    <t>Número de individuos de la población= 100</t>
+  </si>
+  <si>
+    <t>Alfa= 2</t>
+  </si>
+  <si>
+    <t>Fitness óptimo= 99999.0</t>
+  </si>
+  <si>
+    <t>Radio de cobertura de los sensores= 10</t>
+  </si>
+  <si>
+    <t>Tamaño del área de despliegue en X= 60</t>
+  </si>
+  <si>
+    <t>Tamaño del área de despliegue en Y= 60</t>
+  </si>
+  <si>
+    <t>Numero de sensores aleatoriamente distribuidos= 0</t>
+  </si>
+  <si>
+    <t>1024.0</t>
+  </si>
+  <si>
     <t>920.1111</t>
   </si>
   <si>
+    <t>903.125</t>
+  </si>
+  <si>
     <t>902.5</t>
   </si>
   <si>
-    <t>900.0</t>
-  </si>
-  <si>
-    <t>880.1111</t>
+    <t>873.0909</t>
+  </si>
+  <si>
+    <t>861.125</t>
   </si>
   <si>
     <t>846.4</t>
   </si>
   <si>
-    <t>841.0</t>
-  </si>
-  <si>
     <t>821.7778</t>
   </si>
   <si>
-    <t>802.7778</t>
+    <t>820.4545</t>
   </si>
   <si>
     <t>792.1</t>
   </si>
   <si>
-    <t>784.0</t>
-  </si>
-  <si>
-    <t>774.4</t>
-  </si>
-  <si>
-    <t>769.4545</t>
+    <t>705.6</t>
+  </si>
+  <si>
+    <t>690.0833</t>
+  </si>
+  <si>
+    <t>Media= 837.1529966329965</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 68.67279045180486</t>
+  </si>
+  <si>
+    <t>Fitness del mejor individuo= 1024.0</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 111110110000010000000100000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Probabilidad de cruza= 0.9</t>
+  </si>
+  <si>
+    <t>1067.1111</t>
+  </si>
+  <si>
+    <t>883.6</t>
+  </si>
+  <si>
+    <t>820.125</t>
+  </si>
+  <si>
+    <t>780.125</t>
+  </si>
+  <si>
+    <t>760.5</t>
+  </si>
+  <si>
+    <t>Media= 851.1099747474747</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 86.98212538630422</t>
+  </si>
+  <si>
+    <t>Fitness del mejor individuo= 1067.111111111111</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 111111100000000000000100000100000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Probabilidad de cruza= 1.0</t>
+  </si>
+  <si>
+    <t>837.8182</t>
+  </si>
+  <si>
+    <t>803.2727</t>
+  </si>
+  <si>
+    <t>786.2727</t>
   </si>
   <si>
     <t>765.4444</t>
   </si>
   <si>
-    <t>756.9</t>
+    <t>703.125</t>
+  </si>
+  <si>
+    <t>672.4</t>
+  </si>
+  <si>
+    <t>Media= 828.7559511784513</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 67.75470607502109</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 111110100000010000000100000100000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Numero de generaciones= 500</t>
+  </si>
+  <si>
+    <t>924.5</t>
+  </si>
+  <si>
+    <t>882.0</t>
+  </si>
+  <si>
+    <t>840.5</t>
+  </si>
+  <si>
+    <t>693.4444</t>
+  </si>
+  <si>
+    <t>Media= 830.9534259259265</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 65.89187921203758</t>
+  </si>
+  <si>
+    <t>Fitness del mejor individuo= 981.7777777777778</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 111111001000000100000000000000000100000000000000000000000000</t>
+  </si>
+  <si>
+    <t>739.6</t>
+  </si>
+  <si>
+    <t>704.0</t>
+  </si>
+  <si>
+    <t>Media= 840.5166835016837</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 78.18466471677806</t>
+  </si>
+  <si>
+    <t>1111.1111</t>
+  </si>
+  <si>
+    <t>1045.4444</t>
+  </si>
+  <si>
+    <t>980.1</t>
+  </si>
+  <si>
+    <t>960.4</t>
+  </si>
+  <si>
+    <t>946.125</t>
+  </si>
+  <si>
+    <t>940.9</t>
+  </si>
+  <si>
+    <t>Media= 951.8778703703703</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 67.33325034158457</t>
+  </si>
+  <si>
+    <t>Fitness del mejor individuo= 1111.111111111111</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 111111111000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Operador de cruza= TwoPointCrossoverOperator</t>
+  </si>
+  <si>
+    <t>1089.0</t>
+  </si>
+  <si>
+    <t>968.0</t>
+  </si>
+  <si>
+    <t>Media= 959.9560185185182</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 77.8438315435141</t>
+  </si>
+  <si>
+    <t>Fitness del mejor individuo= 1089.0</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 111111101000000000000000000100000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Media= 966.4530555555556</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 73.53555953159669</t>
+  </si>
+  <si>
+    <t>Media= 927.4512037037036</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 72.72335946392157</t>
+  </si>
+  <si>
+    <t>855.3636</t>
+  </si>
+  <si>
+    <t>Media= 956.7173989898986</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 75.54240065602231</t>
+  </si>
+  <si>
+    <t>891.0</t>
+  </si>
+  <si>
+    <t>Media= 931.7278703703702</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 66.10512978274643</t>
+  </si>
+  <si>
+    <t>Fitness del mejor individuo= 1045.4444444444443</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 111110111000010000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>711.1111</t>
+  </si>
+  <si>
+    <t>Media= 932.7574663299661</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 71.03504444330629</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 100111111000000000000000100001000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Operador de cruza= ThreePointCrossoverOperator</t>
+  </si>
+  <si>
+    <t>Media= 917.3614814814815</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 75.84283901904483</t>
   </si>
   <si>
     <t>736.3636</t>
   </si>
   <si>
-    <t>705.6</t>
-  </si>
-  <si>
-    <t>694.2308</t>
-  </si>
-  <si>
-    <t>656.8182</t>
-  </si>
-  <si>
-    <t>DATOS DE CORRIDA Y POBLACION</t>
-  </si>
-  <si>
-    <t>Media= 806.8237192437192</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 4994.83349609375</t>
-  </si>
-  <si>
-    <t>Best individual fitness= 940.4444444444445</t>
-  </si>
-  <si>
-    <t>Best individual allele= 110001100000000000000100000101010000000000000000000000010000</t>
-  </si>
-  <si>
-    <t>Allele length= 60</t>
-  </si>
-  <si>
-    <t>RandomlyDistributedTransmissors= 0</t>
-  </si>
-  <si>
-    <t>NumExecutions= 30</t>
-  </si>
-  <si>
-    <t>CrossoverOperator= OnePointCrossoverOperator</t>
-  </si>
-  <si>
-    <t>MaxGen= 100</t>
-  </si>
-  <si>
-    <t>CrossoverProbability= 0.8</t>
-  </si>
-  <si>
-    <t>MutationProbability= 0.01</t>
-  </si>
-  <si>
-    <t>ObjectiveFunction= SquareRatioObjectiveFunction</t>
-  </si>
-  <si>
-    <t>PopSolutionNumber= 100</t>
-  </si>
-  <si>
-    <t>Alfa= 2</t>
-  </si>
-  <si>
-    <t>MaxFit= 99999.0</t>
-  </si>
-  <si>
-    <t>Tracing= false</t>
-  </si>
-  <si>
-    <t>SensorRatio= 10</t>
-  </si>
-  <si>
-    <t>GridSizeX= 60</t>
-  </si>
-  <si>
-    <t>GridSizeY= 60</t>
-  </si>
-  <si>
-    <t>961.0</t>
-  </si>
-  <si>
-    <t>864.9</t>
-  </si>
-  <si>
-    <t>860.4444</t>
-  </si>
-  <si>
-    <t>828.1</t>
-  </si>
-  <si>
-    <t>820.4545</t>
-  </si>
-  <si>
-    <t>810.0</t>
-  </si>
-  <si>
-    <t>803.2727</t>
-  </si>
-  <si>
-    <t>752.8182</t>
-  </si>
-  <si>
-    <t>752.0833</t>
-  </si>
-  <si>
-    <t>747.1111</t>
-  </si>
-  <si>
-    <t>739.6</t>
-  </si>
-  <si>
-    <t>675.0</t>
-  </si>
-  <si>
-    <t>Media= 827.0111616161614</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 5206.115234375</t>
-  </si>
-  <si>
-    <t>Best individual fitness= 961.0</t>
-  </si>
-  <si>
-    <t>Best individual allele= 101101110001000000000100000000000000000000001000000000000000</t>
-  </si>
-  <si>
-    <t>CrossoverProbability= 0.9</t>
-  </si>
-  <si>
-    <t>1002.7778</t>
-  </si>
-  <si>
-    <t>981.7778</t>
-  </si>
-  <si>
-    <t>940.9</t>
-  </si>
-  <si>
-    <t>921.6</t>
-  </si>
-  <si>
-    <t>883.6</t>
-  </si>
-  <si>
-    <t>729.0</t>
-  </si>
-  <si>
-    <t>705.3333</t>
-  </si>
-  <si>
-    <t>Media= 825.32037037037</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 6608.400390625</t>
-  </si>
-  <si>
-    <t>Best individual fitness= 1002.7777777777778</t>
-  </si>
-  <si>
-    <t>Best individual allele= 110110100000010000000100000101000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>CrossoverProbability= 1.0</t>
-  </si>
-  <si>
-    <t>855.3636</t>
-  </si>
-  <si>
-    <t>786.2727</t>
-  </si>
-  <si>
-    <t>Media= 836.5565656565656</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 3527.80859375</t>
-  </si>
-  <si>
-    <t>Best individual allele= 011111100000000010000100000100000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>MaxGen= 500</t>
-  </si>
-  <si>
-    <t>882.0</t>
-  </si>
-  <si>
-    <t>840.5</t>
-  </si>
-  <si>
-    <t>704.0</t>
-  </si>
-  <si>
-    <t>Media= 835.1937037037037</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 4720.25732421875</t>
-  </si>
-  <si>
-    <t>Best individual fitness= 981.7777777777778</t>
-  </si>
-  <si>
-    <t>Best individual allele= 101110111000010000000000100000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>Media= 855.0861616161616</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 5677.6904296875</t>
-  </si>
-  <si>
-    <t>Best individual allele= 101111100000000000000100100100000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>1111.1111</t>
-  </si>
-  <si>
-    <t>1089.0</t>
-  </si>
-  <si>
-    <t>1067.1111</t>
-  </si>
-  <si>
-    <t>1045.4444</t>
-  </si>
-  <si>
-    <t>1024.0</t>
-  </si>
-  <si>
-    <t>968.0</t>
-  </si>
-  <si>
-    <t>903.125</t>
-  </si>
-  <si>
-    <t>Media= 929.9104629629632</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 7587.3203125</t>
-  </si>
-  <si>
-    <t>Best individual fitness= 1111.111111111111</t>
-  </si>
-  <si>
-    <t>Best individual allele= 111111111000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>CrossoverOperator= TwoPointCrossoverOperator</t>
-  </si>
-  <si>
-    <t>Media= 938.7348148148146</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 5746.34033203125</t>
-  </si>
-  <si>
-    <t>980.1</t>
-  </si>
-  <si>
-    <t>960.4</t>
-  </si>
-  <si>
-    <t>861.125</t>
-  </si>
-  <si>
-    <t>Media= 973.7537962962961</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 5535.25830078125</t>
-  </si>
-  <si>
-    <t>Media= 932.4807407407408</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 4522.73681640625</t>
-  </si>
-  <si>
-    <t>Best individual fitness= 1045.4444444444443</t>
-  </si>
-  <si>
-    <t>Best individual allele= 111110101000010000000000000100000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>Media= 921.7576430976428</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 6870.89892578125</t>
-  </si>
-  <si>
-    <t>Best individual fitness= 1067.111111111111</t>
-  </si>
-  <si>
-    <t>Best individual allele= 111111110000000000000100000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>924.5</t>
-  </si>
-  <si>
-    <t>Media= 964.0493181818181</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 4794.00341796875</t>
-  </si>
-  <si>
-    <t>946.125</t>
-  </si>
-  <si>
-    <t>873.0909</t>
-  </si>
-  <si>
-    <t>Media= 909.6990824915825</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 7005.794921875</t>
-  </si>
-  <si>
-    <t>CrossoverOperator= ThreePointCrossoverOperator</t>
-  </si>
-  <si>
-    <t>Media= 904.1239983164982</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 3365.68603515625</t>
-  </si>
-  <si>
-    <t>Best individual fitness= 1024.0</t>
-  </si>
-  <si>
-    <t>Best individual allele= 101111101000000000000000100100000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>Media= 934.1816919191916</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 6357.94287109375</t>
-  </si>
-  <si>
-    <t>837.8182</t>
-  </si>
-  <si>
-    <t>820.125</t>
-  </si>
-  <si>
-    <t>688.9</t>
-  </si>
-  <si>
-    <t>Media= 899.1792087542087</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 5584.7763671875</t>
-  </si>
-  <si>
-    <t>833.3333</t>
-  </si>
-  <si>
-    <t>Media= 912.0296127946127</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 5826.83740234375</t>
-  </si>
-  <si>
-    <t>Best individual allele= 111111100000000000000100000100000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>Media= 951.8742760942761</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 6005.13330078125</t>
+    <t>Media= 941.3038973063971</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 86.32417270364512</t>
+  </si>
+  <si>
+    <t>Media= 922.6912962962962</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 74.48141677836492</t>
+  </si>
+  <si>
+    <t>Media= 933.582685185185</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 66.91096433647851</t>
+  </si>
+  <si>
+    <t>Media= 956.0621212121209</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 90.06214488566353</t>
   </si>
 </sst>
 </file>
@@ -507,205 +510,202 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -728,215 +728,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
         <v>42</v>
-      </c>
-      <c r="H26" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -959,215 +956,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1190,215 +1184,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1421,215 +1412,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1652,215 +1640,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1883,215 +1868,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" t="s">
         <v>41</v>
-      </c>
-      <c r="H25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2114,160 +2096,160 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -2275,54 +2257,51 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2345,215 +2324,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
         <v>43</v>
-      </c>
-      <c r="H27" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2576,215 +2552,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
         <v>41</v>
-      </c>
-      <c r="H25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2807,144 +2780,144 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -2952,15 +2925,15 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -2968,54 +2941,51 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3038,215 +3008,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3269,215 +3236,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3500,215 +3464,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3731,215 +3692,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3962,72 +3920,72 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -4035,23 +3993,23 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -4059,87 +4017,87 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>41</v>
-      </c>
-      <c r="H25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s">
         <v>42</v>
-      </c>
-      <c r="H26" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -4147,30 +4105,27 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4193,215 +4148,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
         <v>60</v>
-      </c>
-      <c r="H18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4424,215 +4376,212 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/instanciaPruebaRadioCuadrado1/runConf/SquareRadioTest.xlsx
+++ b/instanciaPruebaRadioCuadrado1/runConf/SquareRadioTest.xlsx
@@ -6,128 +6,128 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="0.8-1PC-100" r:id="rId3" sheetId="1"/>
-    <sheet name="0.9-1PC-100" r:id="rId4" sheetId="2"/>
-    <sheet name="1.0-1PC-100" r:id="rId5" sheetId="3"/>
-    <sheet name="0.8-1PC-500" r:id="rId6" sheetId="4"/>
-    <sheet name="0.9-1PC-500" r:id="rId7" sheetId="5"/>
-    <sheet name="1.0-1PC-500" r:id="rId8" sheetId="6"/>
-    <sheet name="0.8-2PC-100" r:id="rId9" sheetId="7"/>
-    <sheet name="0.9-2PC-100" r:id="rId10" sheetId="8"/>
-    <sheet name="1.0-2PC-100" r:id="rId11" sheetId="9"/>
-    <sheet name="0.8-2PC-500" r:id="rId12" sheetId="10"/>
-    <sheet name="0.9-2PC-500" r:id="rId13" sheetId="11"/>
-    <sheet name="1.0-2PC-500" r:id="rId14" sheetId="12"/>
-    <sheet name="0.8-3PC-100" r:id="rId15" sheetId="13"/>
-    <sheet name="0.9-3PC-100" r:id="rId16" sheetId="14"/>
-    <sheet name="1.0-3PC-100" r:id="rId17" sheetId="15"/>
-    <sheet name="0.8-3PC-500" r:id="rId18" sheetId="16"/>
-    <sheet name="0.9-3PC-500" r:id="rId19" sheetId="17"/>
-    <sheet name="1.0-3PC-500" r:id="rId20" sheetId="18"/>
+    <sheet name="0.8-Cruza1Punto-100" r:id="rId3" sheetId="1"/>
+    <sheet name="0.9-Cruza1Punto-100" r:id="rId4" sheetId="2"/>
+    <sheet name="1.0-Cruza1Punto-100" r:id="rId5" sheetId="3"/>
+    <sheet name="0.8-Cruza1Punto-500" r:id="rId6" sheetId="4"/>
+    <sheet name="0.9-Cruza1Punto-500" r:id="rId7" sheetId="5"/>
+    <sheet name="1.0-Cruza1Punto-500" r:id="rId8" sheetId="6"/>
+    <sheet name="0.8-Cruza2Puntos-100" r:id="rId9" sheetId="7"/>
+    <sheet name="0.9-Cruza2Puntos-100" r:id="rId10" sheetId="8"/>
+    <sheet name="1.0-Cruza2Puntos-100" r:id="rId11" sheetId="9"/>
+    <sheet name="0.8-Cruza2Puntos-500" r:id="rId12" sheetId="10"/>
+    <sheet name="0.9-Cruza2Puntos-500" r:id="rId13" sheetId="11"/>
+    <sheet name="1.0-Cruza2Puntos-500" r:id="rId14" sheetId="12"/>
+    <sheet name="0.8-Cruza3Puntos-100" r:id="rId15" sheetId="13"/>
+    <sheet name="0.9-Cruza3Puntos-100" r:id="rId16" sheetId="14"/>
+    <sheet name="1.0-Cruza3Puntos-100" r:id="rId17" sheetId="15"/>
+    <sheet name="0.8-Cruza3Puntos-500" r:id="rId18" sheetId="16"/>
+    <sheet name="0.9-Cruza3Puntos-500" r:id="rId19" sheetId="17"/>
+    <sheet name="1.0-Cruza3Puntos-500" r:id="rId20" sheetId="18"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="133">
   <si>
     <t>Fitness</t>
   </si>
   <si>
-    <t>1002.7778</t>
-  </si>
-  <si>
-    <t>981.7778</t>
-  </si>
-  <si>
-    <t>961.0</t>
-  </si>
-  <si>
-    <t>940.4444</t>
-  </si>
-  <si>
-    <t>921.6</t>
-  </si>
-  <si>
-    <t>900.0</t>
-  </si>
-  <si>
-    <t>880.1111</t>
-  </si>
-  <si>
-    <t>864.9</t>
-  </si>
-  <si>
-    <t>860.4444</t>
-  </si>
-  <si>
-    <t>841.0</t>
-  </si>
-  <si>
-    <t>828.1</t>
-  </si>
-  <si>
-    <t>810.0</t>
-  </si>
-  <si>
-    <t>802.7778</t>
-  </si>
-  <si>
-    <t>800.0</t>
-  </si>
-  <si>
-    <t>784.0</t>
-  </si>
-  <si>
-    <t>774.4</t>
-  </si>
-  <si>
-    <t>769.4545</t>
-  </si>
-  <si>
-    <t>756.9</t>
-  </si>
-  <si>
-    <t>752.8182</t>
-  </si>
-  <si>
-    <t>729.0</t>
-  </si>
-  <si>
-    <t>723.7692</t>
-  </si>
-  <si>
-    <t>722.5</t>
-  </si>
-  <si>
-    <t>720.0909</t>
+    <t>1067,111</t>
+  </si>
+  <si>
+    <t>1002,778</t>
+  </si>
+  <si>
+    <t>940,444</t>
+  </si>
+  <si>
+    <t>920,111</t>
+  </si>
+  <si>
+    <t>902,5</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>883,6</t>
+  </si>
+  <si>
+    <t>880,111</t>
+  </si>
+  <si>
+    <t>864,9</t>
+  </si>
+  <si>
+    <t>860,444</t>
+  </si>
+  <si>
+    <t>846,4</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>840,5</t>
+  </si>
+  <si>
+    <t>828,1</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>792,1</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>769,455</t>
+  </si>
+  <si>
+    <t>765,444</t>
+  </si>
+  <si>
+    <t>756,9</t>
+  </si>
+  <si>
+    <t>739,6</t>
+  </si>
+  <si>
+    <t>736,364</t>
+  </si>
+  <si>
+    <t>641,455</t>
   </si>
   <si>
     <t>DATOS DE CORRIDA Y POBLACION</t>
   </si>
   <si>
-    <t>Media= 826.9081326081326</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 79.59024089241406</t>
-  </si>
-  <si>
-    <t>Fitness del mejor individuo= 1002.7777777777778</t>
-  </si>
-  <si>
-    <t>Cromosoma del mejor individuo= 111101111000000000000000000000000000000000000010000000000000</t>
+    <t>Media= 830,618</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 83,049</t>
+  </si>
+  <si>
+    <t>Fitness del mejor individuo= 1067,111</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 111111110000000000000100000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>Numero de sensores utilizado= 60</t>
   </si>
   <si>
-    <t>Numero de Sensores aleatoriamente distribuidos= 0</t>
+    <t>Numero de sensores aleatoriamente distribuidos= 0</t>
   </si>
   <si>
     <t>Numero de ejecuciones= 30</t>
   </si>
   <si>
-    <t>Operador de cruza= OnePointCrossoverOperator</t>
+    <t>Operador de cruza= Cruza1Punto</t>
   </si>
   <si>
     <t>Numero de generaciones= 100</t>
@@ -139,7 +139,7 @@
     <t>Probabilidad de mutación= 0.01</t>
   </si>
   <si>
-    <t>Función objetivo= SquareRatioObjectiveFunction</t>
+    <t>Función objetivo= RadioCuadrado</t>
   </si>
   <si>
     <t>Número de individuos de la población= 100</t>
@@ -160,289 +160,274 @@
     <t>Tamaño del área de despliegue en Y= 60</t>
   </si>
   <si>
-    <t>Numero de sensores aleatoriamente distribuidos= 0</t>
-  </si>
-  <si>
-    <t>1024.0</t>
-  </si>
-  <si>
-    <t>920.1111</t>
-  </si>
-  <si>
-    <t>903.125</t>
-  </si>
-  <si>
-    <t>902.5</t>
-  </si>
-  <si>
-    <t>873.0909</t>
-  </si>
-  <si>
-    <t>861.125</t>
-  </si>
-  <si>
-    <t>846.4</t>
-  </si>
-  <si>
-    <t>821.7778</t>
-  </si>
-  <si>
-    <t>820.4545</t>
-  </si>
-  <si>
-    <t>792.1</t>
-  </si>
-  <si>
-    <t>705.6</t>
-  </si>
-  <si>
-    <t>690.0833</t>
-  </si>
-  <si>
-    <t>Media= 837.1529966329965</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 68.67279045180486</t>
-  </si>
-  <si>
-    <t>Fitness del mejor individuo= 1024.0</t>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>903,125</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>873,091</t>
+  </si>
+  <si>
+    <t>821,778</t>
+  </si>
+  <si>
+    <t>786,273</t>
+  </si>
+  <si>
+    <t>688,9</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>Media= 849,179</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 82,328</t>
+  </si>
+  <si>
+    <t>Fitness del mejor individuo= 1024</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 110111100000000000000100000101000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Probabilidad de cruza= 0.9</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>924,5</t>
+  </si>
+  <si>
+    <t>837,818</t>
+  </si>
+  <si>
+    <t>820,455</t>
+  </si>
+  <si>
+    <t>803,273</t>
+  </si>
+  <si>
+    <t>774,4</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>722,5</t>
+  </si>
+  <si>
+    <t>705,6</t>
+  </si>
+  <si>
+    <t>Media= 838,61</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 77,429</t>
+  </si>
+  <si>
+    <t>Fitness del mejor individuo= 1089</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 111111101000000000000000000100000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Probabilidad de cruza= 1.0</t>
+  </si>
+  <si>
+    <t>802,778</t>
+  </si>
+  <si>
+    <t>752,818</t>
+  </si>
+  <si>
+    <t>720,091</t>
+  </si>
+  <si>
+    <t>Media= 826,619</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 70,462</t>
+  </si>
+  <si>
+    <t>Fitness del mejor individuo= 1002,778</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 111111100000000000000100000000000100000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Numero de generaciones= 500</t>
+  </si>
+  <si>
+    <t>820,125</t>
+  </si>
+  <si>
+    <t>711,111</t>
+  </si>
+  <si>
+    <t>690,083</t>
+  </si>
+  <si>
+    <t>688,091</t>
+  </si>
+  <si>
+    <t>Media= 830,769</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 84,183</t>
   </si>
   <si>
     <t>Cromosoma del mejor individuo= 111110110000010000000100000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>Probabilidad de cruza= 0.9</t>
-  </si>
-  <si>
-    <t>1067.1111</t>
-  </si>
-  <si>
-    <t>883.6</t>
-  </si>
-  <si>
-    <t>820.125</t>
-  </si>
-  <si>
-    <t>780.125</t>
-  </si>
-  <si>
-    <t>760.5</t>
-  </si>
-  <si>
-    <t>Media= 851.1099747474747</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 86.98212538630422</t>
-  </si>
-  <si>
-    <t>Fitness del mejor individuo= 1067.111111111111</t>
-  </si>
-  <si>
-    <t>Cromosoma del mejor individuo= 111111100000000000000100000100000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>Probabilidad de cruza= 1.0</t>
-  </si>
-  <si>
-    <t>837.8182</t>
-  </si>
-  <si>
-    <t>803.2727</t>
-  </si>
-  <si>
-    <t>786.2727</t>
-  </si>
-  <si>
-    <t>765.4444</t>
-  </si>
-  <si>
-    <t>703.125</t>
-  </si>
-  <si>
-    <t>672.4</t>
-  </si>
-  <si>
-    <t>Media= 828.7559511784513</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 67.75470607502109</t>
+    <t>946,125</t>
+  </si>
+  <si>
+    <t>921,6</t>
+  </si>
+  <si>
+    <t>861,125</t>
+  </si>
+  <si>
+    <t>855,364</t>
+  </si>
+  <si>
+    <t>784,083</t>
+  </si>
+  <si>
+    <t>Media= 849,946</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 69,338</t>
   </si>
   <si>
     <t>Cromosoma del mejor individuo= 111110100000010000000100000100000000000000000000000000000000</t>
   </si>
   <si>
-    <t>Numero de generaciones= 500</t>
-  </si>
-  <si>
-    <t>924.5</t>
-  </si>
-  <si>
-    <t>882.0</t>
-  </si>
-  <si>
-    <t>840.5</t>
-  </si>
-  <si>
-    <t>693.4444</t>
-  </si>
-  <si>
-    <t>Media= 830.9534259259265</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 65.89187921203758</t>
-  </si>
-  <si>
-    <t>Fitness del mejor individuo= 981.7777777777778</t>
-  </si>
-  <si>
-    <t>Cromosoma del mejor individuo= 111111001000000100000000000000000100000000000000000000000000</t>
-  </si>
-  <si>
-    <t>739.6</t>
-  </si>
-  <si>
-    <t>704.0</t>
-  </si>
-  <si>
-    <t>Media= 840.5166835016837</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 78.18466471677806</t>
-  </si>
-  <si>
-    <t>1111.1111</t>
-  </si>
-  <si>
-    <t>1045.4444</t>
-  </si>
-  <si>
-    <t>980.1</t>
-  </si>
-  <si>
-    <t>960.4</t>
-  </si>
-  <si>
-    <t>946.125</t>
-  </si>
-  <si>
-    <t>940.9</t>
-  </si>
-  <si>
-    <t>Media= 951.8778703703703</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 67.33325034158457</t>
-  </si>
-  <si>
-    <t>Fitness del mejor individuo= 1111.111111111111</t>
+    <t>981,778</t>
+  </si>
+  <si>
+    <t>Media= 933,988</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 56,96</t>
+  </si>
+  <si>
+    <t>Operador de cruza= Cruza2Puntos</t>
+  </si>
+  <si>
+    <t>1045,444</t>
+  </si>
+  <si>
+    <t>Media= 951,829</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 73,971</t>
+  </si>
+  <si>
+    <t>1111,111</t>
+  </si>
+  <si>
+    <t>960,4</t>
+  </si>
+  <si>
+    <t>940,9</t>
+  </si>
+  <si>
+    <t>Media= 961,939</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 91,078</t>
+  </si>
+  <si>
+    <t>Fitness del mejor individuo= 1111,111</t>
   </si>
   <si>
     <t>Cromosoma del mejor individuo= 111111111000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>Operador de cruza= TwoPointCrossoverOperator</t>
-  </si>
-  <si>
-    <t>1089.0</t>
-  </si>
-  <si>
-    <t>968.0</t>
-  </si>
-  <si>
-    <t>Media= 959.9560185185182</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 77.8438315435141</t>
-  </si>
-  <si>
-    <t>Fitness del mejor individuo= 1089.0</t>
-  </si>
-  <si>
-    <t>Cromosoma del mejor individuo= 111111101000000000000000000100000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>Media= 966.4530555555556</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 73.53555953159669</t>
-  </si>
-  <si>
-    <t>Media= 927.4512037037036</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 72.72335946392157</t>
-  </si>
-  <si>
-    <t>855.3636</t>
-  </si>
-  <si>
-    <t>Media= 956.7173989898986</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 75.54240065602231</t>
-  </si>
-  <si>
-    <t>891.0</t>
-  </si>
-  <si>
-    <t>Media= 931.7278703703702</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 66.10512978274643</t>
-  </si>
-  <si>
-    <t>Fitness del mejor individuo= 1045.4444444444443</t>
-  </si>
-  <si>
-    <t>Cromosoma del mejor individuo= 111110111000010000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>711.1111</t>
-  </si>
-  <si>
-    <t>Media= 932.7574663299661</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 71.03504444330629</t>
-  </si>
-  <si>
-    <t>Cromosoma del mejor individuo= 100111111000000000000000100001000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>Operador de cruza= ThreePointCrossoverOperator</t>
-  </si>
-  <si>
-    <t>Media= 917.3614814814815</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 75.84283901904483</t>
-  </si>
-  <si>
-    <t>736.3636</t>
-  </si>
-  <si>
-    <t>Media= 941.3038973063971</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 86.32417270364512</t>
-  </si>
-  <si>
-    <t>Media= 922.6912962962962</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 74.48141677836492</t>
-  </si>
-  <si>
-    <t>Media= 933.582685185185</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 66.91096433647851</t>
-  </si>
-  <si>
-    <t>Media= 956.0621212121209</t>
-  </si>
-  <si>
-    <t>Desvío estándar= 90.06214488566353</t>
+    <t>Media= 943,187</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 82,661</t>
+  </si>
+  <si>
+    <t>980,1</t>
+  </si>
+  <si>
+    <t>Media= 935,15</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 89,842</t>
+  </si>
+  <si>
+    <t>Media= 963,439</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 74,442</t>
+  </si>
+  <si>
+    <t>760,5</t>
+  </si>
+  <si>
+    <t>Media= 916,59</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 88,966</t>
+  </si>
+  <si>
+    <t>Operador de cruza= Cruza3Puntos</t>
+  </si>
+  <si>
+    <t>Media= 931,567</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 78,912</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Media= 925,745</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 56,455</t>
+  </si>
+  <si>
+    <t>Cromosoma del mejor individuo= 111111000000000100000100000100000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>803,571</t>
+  </si>
+  <si>
+    <t>Media= 925,831</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 62,886</t>
+  </si>
+  <si>
+    <t>Media= 938,368</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 72,955</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>Media= 930,759</t>
+  </si>
+  <si>
+    <t>Desvío estándar= 71,941</t>
   </si>
 </sst>
 </file>
@@ -530,7 +515,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -538,7 +523,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -546,7 +531,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -554,7 +539,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -562,7 +547,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -570,7 +555,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -578,7 +563,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -586,7 +571,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -594,7 +579,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
@@ -602,7 +587,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -610,7 +595,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
@@ -618,7 +603,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -626,7 +611,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -634,7 +619,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -642,7 +627,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -674,7 +659,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -682,20 +667,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -728,37 +710,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -766,39 +748,39 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -806,7 +788,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -814,7 +796,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -822,23 +804,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
@@ -846,7 +828,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -854,7 +836,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -862,7 +844,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -878,7 +860,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -894,7 +876,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -902,7 +884,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -910,30 +892,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -956,37 +935,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -994,39 +973,39 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1034,7 +1013,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -1042,7 +1021,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -1050,31 +1029,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -1082,7 +1061,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -1090,7 +1069,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -1098,7 +1077,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -1106,7 +1085,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -1114,7 +1093,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -1122,7 +1101,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -1130,7 +1109,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -1138,30 +1117,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1184,12 +1160,12 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -1204,17 +1180,17 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -1222,10 +1198,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -1233,28 +1209,28 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1262,7 +1238,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -1270,7 +1246,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -1278,23 +1254,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="H18" t="s">
         <v>70</v>
@@ -1302,7 +1278,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -1310,7 +1286,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -1318,7 +1294,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -1326,7 +1302,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -1334,7 +1310,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -1342,7 +1318,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -1358,7 +1334,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -1366,30 +1342,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1412,32 +1385,32 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -1453,36 +1426,36 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1490,7 +1463,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -1498,7 +1471,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -1506,15 +1479,15 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -1522,7 +1495,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
@@ -1530,7 +1503,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -1538,7 +1511,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -1546,7 +1519,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -1554,7 +1527,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -1562,7 +1535,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -1570,7 +1543,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -1578,7 +1551,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -1586,7 +1559,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -1594,30 +1567,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1640,37 +1610,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -1678,39 +1648,39 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1718,7 +1688,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -1726,7 +1696,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -1734,15 +1704,15 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -1750,10 +1720,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -1766,7 +1736,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -1774,7 +1744,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -1782,7 +1752,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -1798,7 +1768,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -1806,7 +1776,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -1814,7 +1784,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -1822,20 +1792,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1845,7 +1812,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1868,32 +1835,32 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -1906,39 +1873,39 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="H10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1954,7 +1921,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -1962,10 +1929,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
@@ -1986,7 +1953,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -2002,7 +1969,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -2010,7 +1977,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -2026,7 +1993,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -2034,7 +2001,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -2042,7 +2009,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -2050,30 +2017,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2096,37 +2060,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -2134,26 +2098,26 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -2161,12 +2125,12 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -2174,7 +2138,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -2182,7 +2146,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -2190,23 +2154,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
@@ -2214,7 +2178,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -2222,7 +2186,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -2230,7 +2194,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -2238,7 +2202,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -2246,7 +2210,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -2254,7 +2218,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -2278,30 +2242,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2324,12 +2285,12 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -2339,7 +2300,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -2365,36 +2326,36 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -2402,7 +2363,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -2418,31 +2379,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -2450,7 +2411,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -2458,7 +2419,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -2466,7 +2427,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -2490,7 +2451,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -2498,7 +2459,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -2506,30 +2467,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2552,37 +2510,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -2590,39 +2548,39 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -2630,7 +2588,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -2638,7 +2596,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -2646,23 +2604,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
         <v>70</v>
@@ -2670,7 +2628,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -2678,7 +2636,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -2686,7 +2644,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -2694,7 +2652,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -2702,7 +2660,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -2710,7 +2668,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -2726,7 +2684,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -2734,25 +2692,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -2780,37 +2735,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -2818,39 +2773,39 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -2858,7 +2813,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -2866,7 +2821,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -2882,7 +2837,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -2890,15 +2845,15 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -2906,7 +2861,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -2914,7 +2869,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -2922,7 +2877,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -2930,7 +2885,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -2938,7 +2893,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -2946,7 +2901,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -2954,7 +2909,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -2962,15 +2917,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -2980,12 +2932,12 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3008,22 +2960,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -3033,12 +2985,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -3046,7 +2998,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
         <v>66</v>
@@ -3054,7 +3006,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
         <v>67</v>
@@ -3062,7 +3014,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>68</v>
@@ -3070,7 +3022,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
         <v>69</v>
@@ -3078,7 +3030,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -3086,7 +3038,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -3094,7 +3046,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -3102,7 +3054,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
@@ -3110,7 +3062,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -3118,7 +3070,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
         <v>70</v>
@@ -3126,7 +3078,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -3134,7 +3086,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -3142,7 +3094,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -3150,7 +3102,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -3158,7 +3110,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -3166,7 +3118,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -3174,7 +3126,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -3182,7 +3134,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -3190,30 +3142,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3236,37 +3185,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -3274,39 +3223,39 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -3314,7 +3263,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -3322,7 +3271,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -3330,7 +3279,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
@@ -3338,15 +3287,15 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
@@ -3354,7 +3303,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -3362,7 +3311,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -3370,7 +3319,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -3378,7 +3327,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -3386,7 +3335,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -3394,7 +3343,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -3402,7 +3351,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -3410,7 +3359,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -3418,30 +3367,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3464,37 +3410,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -3502,10 +3448,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -3513,28 +3459,28 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -3542,7 +3488,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -3550,7 +3496,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -3558,7 +3504,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
@@ -3566,23 +3512,23 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -3590,7 +3536,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -3598,7 +3544,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -3622,7 +3568,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -3630,7 +3576,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -3638,7 +3584,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -3646,30 +3592,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3692,17 +3635,17 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -3712,12 +3655,12 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3730,7 +3673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
         <v>91</v>
@@ -3738,7 +3681,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
         <v>92</v>
@@ -3746,23 +3689,23 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -3770,7 +3713,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -3786,7 +3729,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
@@ -3794,15 +3737,15 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>70</v>
@@ -3810,7 +3753,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -3818,7 +3761,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -3826,7 +3769,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -3834,7 +3777,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -3842,7 +3785,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -3850,7 +3793,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -3858,7 +3801,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -3866,7 +3809,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -3874,30 +3817,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3920,37 +3860,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -3958,39 +3898,39 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -3998,7 +3938,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -4014,15 +3954,15 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -4030,7 +3970,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
@@ -4038,7 +3978,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -4046,7 +3986,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -4054,7 +3994,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -4062,7 +4002,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -4070,7 +4010,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -4078,7 +4018,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -4086,7 +4026,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -4094,7 +4034,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -4102,30 +4042,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4148,37 +4085,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -4186,39 +4123,39 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -4226,7 +4163,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -4234,7 +4171,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -4242,15 +4179,15 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -4258,15 +4195,15 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -4274,7 +4211,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -4282,7 +4219,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -4290,7 +4227,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -4298,7 +4235,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -4306,7 +4243,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -4322,7 +4259,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -4330,15 +4267,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -4348,12 +4282,12 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4376,37 +4310,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -4414,39 +4348,39 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -4454,7 +4388,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -4462,7 +4396,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
@@ -4470,15 +4404,15 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -4486,7 +4420,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
         <v>70</v>
@@ -4494,7 +4428,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
@@ -4502,7 +4436,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -4510,7 +4444,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
         <v>37</v>
@@ -4518,7 +4452,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -4526,7 +4460,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
         <v>39</v>
@@ -4534,7 +4468,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
         <v>40</v>
@@ -4542,7 +4476,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -4550,7 +4484,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -4558,30 +4492,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
